--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JAVA\JDBC\JDBC_2020_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EGCC\JDBC_2020_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>NRO</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>30.ENE.2020</t>
+  </si>
+  <si>
+    <t>04.ENE.2020</t>
   </si>
 </sst>
 </file>
@@ -334,18 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -370,6 +361,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -818,63 +821,392 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Control 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Control 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Control 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Control 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2054" name="Control 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2055" name="Control 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2056" name="Control 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2056"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="Control 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2057" name="Control 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -907,21 +1239,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="Control 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2051"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2058" name="Control 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -954,21 +1286,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2052" name="Control 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2052"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2059" name="Control 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2059"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1001,21 +1333,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2053" name="Control 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2053"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2060" name="Control 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2060"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1048,21 +1380,21 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2054" name="Control 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2054"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2061" name="Control 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2061"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1095,21 +1427,21 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2055" name="Control 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2055"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2062" name="Control 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2062"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1142,21 +1474,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2056" name="Control 8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2056"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2063" name="Control 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2063"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1189,21 +1521,21 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2057" name="Control 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2057"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2064" name="Control 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2064"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1236,21 +1568,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2058" name="Control 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2058"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2065" name="Control 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2065"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1283,21 +1615,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2059" name="Control 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2059"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2066" name="Control 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2066"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1330,21 +1662,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2060" name="Control 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2060"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2067" name="Control 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2067"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1377,21 +1709,21 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2061" name="Control 13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2061"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2068" name="Control 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2068"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1424,21 +1756,21 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2062" name="Control 14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2062"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2069" name="Control 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2069"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,21 +1803,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2063" name="Control 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2063"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2070" name="Control 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2070"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1518,21 +1850,21 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2064" name="Control 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2064"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2071" name="Control 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2071"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1565,21 +1897,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2065" name="Control 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2065"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2072" name="Control 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2072"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1612,21 +1944,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2066" name="Control 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2066"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2073" name="Control 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2073"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1659,21 +1991,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2067" name="Control 19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2067"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2074" name="Control 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2074"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1706,21 +2038,21 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2068" name="Control 20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2068"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2075" name="Control 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2075"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1753,21 +2085,21 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2069" name="Control 21" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2069"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2076" name="Control 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2076"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1800,21 +2132,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2070" name="Control 22" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2070"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2077" name="Control 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2077"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1847,21 +2179,21 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2071" name="Control 23" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2071"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2078" name="Control 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2078"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1894,21 +2226,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2072" name="Control 24" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2072"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2079" name="Control 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2079"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1941,21 +2273,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2073" name="Control 25" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2073"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2080" name="Control 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2080"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1988,21 +2320,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2074" name="Control 26" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2074"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2081" name="Control 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2081"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2035,21 +2367,21 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2075" name="Control 27" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2075"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2082" name="Control 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2082"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2082,21 +2414,21 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2076" name="Control 28" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2076"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2083" name="Control 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2083"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2129,21 +2461,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2077" name="Control 29" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2077"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2084" name="Control 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2084"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2176,21 +2508,21 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2078" name="Control 30" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2078"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2085" name="Control 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2085"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2223,21 +2555,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2079" name="Control 31" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2079"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2086" name="Control 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2086"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2270,21 +2602,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2080" name="Control 32" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2080"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2087" name="Control 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2087"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2317,21 +2649,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2081" name="Control 33" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2081"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2088" name="Control 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2088"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2364,21 +2696,21 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2082" name="Control 34" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2082"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2089" name="Control 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2089"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2411,21 +2743,21 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2083" name="Control 35" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2083"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2090" name="Control 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2090"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2458,21 +2790,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2084" name="Control 36" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2084"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2091" name="Control 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2091"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2505,21 +2837,21 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2085" name="Control 37" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2085"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2092" name="Control 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2092"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2552,21 +2884,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2086" name="Control 38" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2086"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2093" name="Control 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2093"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2599,21 +2931,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2087" name="Control 39" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2087"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2094" name="Control 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2094"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2646,21 +2978,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2088" name="Control 40" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2088"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2095" name="Control 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2095"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2693,21 +3025,21 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2089" name="Control 41" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2089"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2096" name="Control 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2096"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2740,21 +3072,21 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2090" name="Control 42" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2090"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2097" name="Control 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2097"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2787,21 +3119,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2091" name="Control 43" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2091"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2098" name="Control 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2098"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2834,21 +3166,21 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2092" name="Control 44" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2092"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2099" name="Control 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2099"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2881,21 +3213,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2093" name="Control 45" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2093"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2100" name="Control 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2100"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2928,21 +3260,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2094" name="Control 46" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2094"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2101" name="Control 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2101"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2975,21 +3307,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2095" name="Control 47" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2095"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2102" name="Control 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2102"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3022,21 +3354,21 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2096" name="Control 48" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2096"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2103" name="Control 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2103"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3069,21 +3401,21 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2097" name="Control 49" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2097"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2104" name="Control 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2104"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3116,21 +3448,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2098" name="Control 50" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2098"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2105" name="Control 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2105"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3163,21 +3495,21 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2099" name="Control 51" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2099"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2106" name="Control 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2106"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3210,21 +3542,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2100" name="Control 52" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2100"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2107" name="Control 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2107"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3257,21 +3589,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2101" name="Control 53" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2101"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2108" name="Control 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2108"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3304,21 +3636,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2102" name="Control 54" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2102"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2109" name="Control 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2109"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3351,21 +3683,21 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2103" name="Control 55" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2103"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2110" name="Control 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2110"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3398,21 +3730,21 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2104" name="Control 56" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2104"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2111" name="Control 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2111"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3445,21 +3777,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2105" name="Control 57" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2105"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2112" name="Control 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2112"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3492,21 +3824,21 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2106" name="Control 58" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2106"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2113" name="Control 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2113"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3539,21 +3871,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2107" name="Control 59" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2107"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2114" name="Control 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2114"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3586,21 +3918,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2108" name="Control 60" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2108"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2115" name="Control 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2115"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3633,21 +3965,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2109" name="Control 61" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2109"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2116" name="Control 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2116"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3680,21 +4012,21 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2110" name="Control 62" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2110"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2117" name="Control 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2117"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3727,21 +4059,21 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2111" name="Control 63" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2111"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2118" name="Control 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2118"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3774,21 +4106,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2112" name="Control 64" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2112"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2119" name="Control 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2119"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3821,21 +4153,21 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2113" name="Control 65" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2113"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2120" name="Control 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2120"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3868,21 +4200,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2114" name="Control 66" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2114"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2121" name="Control 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2121"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3915,21 +4247,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2115" name="Control 67" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2115"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2122" name="Control 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2122"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3962,21 +4294,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2116" name="Control 68" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2116"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2123" name="Control 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2123"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4009,21 +4341,21 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2117" name="Control 69" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2117"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2124" name="Control 76" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2124"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4056,21 +4388,21 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2118" name="Control 70" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2118"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2125" name="Control 77" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2125"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4103,21 +4435,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2119" name="Control 71" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2119"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2126" name="Control 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2126"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4150,21 +4482,21 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2120" name="Control 72" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2120"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2127" name="Control 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2127"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4197,21 +4529,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2121" name="Control 73" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2121"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2128" name="Control 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2128"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4244,21 +4576,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2122" name="Control 74" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2122"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2129" name="Control 81" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2129"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4291,21 +4623,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2123" name="Control 75" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2123"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2130" name="Control 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2130"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4338,21 +4670,21 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2124" name="Control 76" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2124"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2131" name="Control 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2131"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4385,21 +4717,21 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2125" name="Control 77" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2125"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2132" name="Control 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2132"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4432,21 +4764,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2126" name="Control 78" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2126"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2133" name="Control 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2133"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4479,21 +4811,21 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2127" name="Control 79" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2127"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2134" name="Control 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2134"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4526,21 +4858,21 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2128" name="Control 80" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2128"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2135" name="Control 87" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2135"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4573,21 +4905,21 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2129" name="Control 81" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2129"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2136" name="Control 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2136"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4620,21 +4952,21 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2130" name="Control 82" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2130"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2137" name="Control 89" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2137"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4667,343 +4999,14 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2131" name="Control 83" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2131"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2132" name="Control 84" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2132"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2133" name="Control 85" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2133"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2134" name="Control 86" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2134"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2135" name="Control 87" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2135"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2136" name="Control 88" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2136"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2137" name="Control 89" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2137"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5308,45 +5311,45 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="6" width="15.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
@@ -5360,11 +5363,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="11">
         <v>202001</v>
       </c>
@@ -5376,13 +5379,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -5392,11 +5395,13 @@
       <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -5406,11 +5411,13 @@
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -5420,11 +5427,13 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -5434,11 +5443,13 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -5448,11 +5459,13 @@
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -5462,11 +5475,13 @@
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -5476,11 +5491,13 @@
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -5490,11 +5507,13 @@
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -5504,11 +5523,13 @@
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -5518,11 +5539,13 @@
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -5532,11 +5555,13 @@
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -5546,11 +5571,13 @@
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>12</v>
       </c>
@@ -5560,11 +5587,13 @@
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>13</v>
       </c>
@@ -5574,11 +5603,13 @@
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>14</v>
       </c>
@@ -5610,216 +5641,216 @@
       <selection activeCell="C1" sqref="C1:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="56.109375" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="2:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="2:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
         <v>4</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="2:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17">
         <v>5</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="2:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21">
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
         <v>6</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="2:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
         <v>7</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
         <v>8</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="2:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
         <v>9</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="2:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="21">
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
         <v>10</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
         <v>11</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="2:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
         <v>12</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
         <v>13</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5844,2252 +5875,2252 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId17" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
+        <control shapeId="2049" r:id="rId17" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId17" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId19" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId19" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId20" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId20" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId21" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId21" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId22" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId22" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId23" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId23" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId24" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId24" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId25" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId25" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId26" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId26" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId27" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId27" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId28" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId28" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId29" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId29" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId30" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId30" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId31" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId31" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId32" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId32" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId33" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId33" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId34" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId34" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId35" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId35" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId36" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId36" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId37" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId37" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId38" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId38" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId39" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId39" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId40" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId40" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId41" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId41" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId42" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId42" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId43" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId43" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId44" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId44" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId45" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId45" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId46" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId46" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId47" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId47" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId48" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId48" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId49" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId49" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId50" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId50" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId51" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId51" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId52" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId52" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId53" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId53" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId54" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId54" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId55" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId55" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId56" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId56" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId57" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId57" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId58" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId58" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId59" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId59" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId60" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId60" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId61" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId61" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId62" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId62" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId63" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId63" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId64" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId64" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId65" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId65" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId66" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId66" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId67" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId67" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId68" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId68" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId69" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId69" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId70" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId70" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId71" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId71" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId72" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId72" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId73" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId73" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId74" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId74" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId75" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId75" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId76" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId76" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId77" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId77" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId78" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId78" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId79" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId79" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId80" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId80" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId81" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId81" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId82" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId82" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId83" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId83" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId84" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId84" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId85" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId85" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId86" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId86" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId87" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId87" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId88" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId88" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId89" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId89" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId90" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId90" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId91" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId91" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId92" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId92" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId93" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId93" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId94" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId94" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId95" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId95" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId96" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId96" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId97" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId97" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId98" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId98" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId99" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId99" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId100" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2138" r:id="rId17" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId19" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId100" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId101" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId101" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId102" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId102" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId103" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId103" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId104" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId104" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId105" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId105" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId106" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId106" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId107" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2137" r:id="rId19" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId20" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId20" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId21" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId21" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId22" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId22" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId23" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId23" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId24" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId24" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId25" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId25" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId26" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId26" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId27" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId27" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId28" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId28" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId29" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId29" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId30" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId30" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId31" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId31" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId32" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId32" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId33" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId33" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId34" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId34" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId35" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId35" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId36" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId36" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId37" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId37" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId38" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId38" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId39" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId39" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId40" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId40" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId41" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId41" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId42" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId42" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId43" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId43" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId44" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId44" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId45" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId45" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId46" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId46" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId47" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId47" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId48" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId48" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId49" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId49" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId50" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId50" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId51" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId51" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId52" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId52" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId53" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId53" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId54" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId54" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId55" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId55" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId56" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId56" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId57" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId57" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId58" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId58" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId59" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId59" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId60" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId60" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId61" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId61" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId62" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId62" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId63" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId63" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId64" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId64" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId65" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId65" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId66" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId66" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId67" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId67" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId68" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId68" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId69" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId69" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId70" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId70" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId71" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId71" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId72" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId72" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId73" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId73" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId74" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId74" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId75" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId75" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId76" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId76" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId77" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId77" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId78" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId78" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId79" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId79" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId80" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId80" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId81" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId81" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId82" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId82" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId83" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId83" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId84" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId84" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId85" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId85" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId86" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId86" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId87" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId87" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId88" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId88" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId89" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId89" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId90" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId90" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId91" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId91" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId92" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId92" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId93" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId93" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId94" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId94" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId95" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId95" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId96" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId96" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId97" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId97" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId98" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId98" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId99" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId99" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId100" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId100" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId101" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId101" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId102" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId102" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId103" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId103" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId104" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId104" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId105" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId105" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId106" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId106" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId107" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId107" name="Control 1"/>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2138" r:id="rId107" name="Control 90"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
   <si>
     <t>NRO</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>04.FEB.2020</t>
+  </si>
+  <si>
+    <t>11.FEB.2020</t>
   </si>
 </sst>
 </file>
@@ -646,8 +649,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +712,9 @@
       <c r="D7" s="12">
         <v>43889</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12">
+        <v>43872</v>
+      </c>
       <c r="F7" s="10" t="s">
         <v>14</v>
       </c>
@@ -736,7 +741,9 @@
       <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -788,7 +795,9 @@
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -806,7 +815,9 @@
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -824,7 +835,9 @@
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -842,7 +855,9 @@
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -860,7 +875,9 @@
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -878,7 +895,9 @@
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -896,7 +915,9 @@
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -932,7 +953,9 @@
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -950,7 +973,9 @@
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -968,7 +993,9 @@
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
